--- a/Резы/Респа для ПЕ-91б на 2020 год.xlsx
+++ b/Резы/Респа для ПЕ-91б на 2020 год.xlsx
@@ -56,7 +56,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,24 +114,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,49 +159,70 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -221,7 +242,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,7 +276,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -726,7 +749,7 @@
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
@@ -827,7 +850,7 @@
       <c r="F7" s="13" t="n"/>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 ФЗК_зал
 205</t>
         </is>
@@ -859,7 +882,7 @@
       <c r="F8" s="13" t="n"/>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
@@ -991,7 +1014,7 @@
       <c r="F12" s="13" t="n"/>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
@@ -1048,7 +1071,7 @@
       <c r="F14" s="13" t="n"/>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 306
 410</t>
         </is>
@@ -1076,7 +1099,7 @@
       <c r="F15" s="17" t="n"/>
       <c r="G15" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="H15" s="10" t="inlineStr">
@@ -1126,7 +1149,7 @@
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 410</t>
         </is>
       </c>
@@ -1156,7 +1179,7 @@
       <c r="F18" s="13" t="n"/>
       <c r="G18" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="H18" s="6" t="inlineStr">
@@ -1268,7 +1291,7 @@
       <c r="F22" s="13" t="n"/>
       <c r="G22" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="H22" s="6" t="inlineStr">
@@ -1331,7 +1354,7 @@
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 310
 ФЗК_зал</t>
         </is>
@@ -1392,7 +1415,7 @@
       </c>
       <c r="G26" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="H26" s="6" t="inlineStr">
@@ -1481,7 +1504,7 @@
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="20.5" customWidth="1" min="3" max="3"/>
     <col width="93.8" customWidth="1" min="4" max="4"/>
-    <col width="35.8" customWidth="1" min="5" max="5"/>
+    <col width="76.39999999999999" customWidth="1" min="5" max="5"/>
     <col width="80.75" customWidth="1" min="6" max="6"/>
     <col width="29.5" customWidth="1" min="7" max="7"/>
     <col width="35.8" customWidth="1" min="8" max="8"/>
@@ -1597,7 +1620,7 @@
       <c r="H3" s="13" t="n"/>
       <c r="I3" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J3" s="6" t="inlineStr">
@@ -1740,7 +1763,7 @@
       <c r="H8" s="13" t="n"/>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
@@ -1876,7 +1899,7 @@
       </c>
       <c r="I12" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 404</t>
         </is>
       </c>
@@ -1908,7 +1931,7 @@
       <c r="H13" s="13" t="n"/>
       <c r="I13" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J13" s="6" t="inlineStr">
@@ -2025,7 +2048,7 @@
       <c r="H17" s="13" t="n"/>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J17" s="6" t="inlineStr">
@@ -2147,7 +2170,7 @@
       <c r="H21" s="13" t="n"/>
       <c r="I21" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J21" s="6" t="inlineStr">
@@ -2258,15 +2281,16 @@
         </is>
       </c>
       <c r="D25" s="4" t="n"/>
-      <c r="F25" s="7" t="inlineStr">
+      <c r="E25" s="7" t="inlineStr">
         <is>
           <t>Структуры и алгоритмы обработка данных: лекция (общ)</t>
         </is>
       </c>
+      <c r="F25" s="19" t="n"/>
       <c r="G25" s="4" t="n"/>
       <c r="I25" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J25" s="6" t="inlineStr">
@@ -2286,7 +2310,8 @@
         </is>
       </c>
       <c r="D26" s="4" t="n"/>
-      <c r="F26" s="19" t="n"/>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="21" t="n"/>
       <c r="G26" s="4" t="n"/>
       <c r="I26" s="8" t="n"/>
       <c r="J26" s="8" t="n"/>
@@ -2320,7 +2345,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="39">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
@@ -2346,12 +2371,10 @@
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:E25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:F26"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I3:I4"/>
@@ -2391,7 +2414,7 @@
     <col width="93.8" customWidth="1" min="5" max="5"/>
     <col width="89.45" customWidth="1" min="6" max="6"/>
     <col width="23.5" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -2493,7 +2516,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I3" s="6" t="inlineStr">
@@ -2526,7 +2549,7 @@
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал, 414</t>
+          <t>ХЗ, 414</t>
         </is>
       </c>
       <c r="I4" s="6" t="inlineStr">
@@ -2639,7 +2662,7 @@
       <c r="G8" s="13" t="n"/>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
@@ -2800,7 +2823,7 @@
       <c r="G13" s="13" t="n"/>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I13" s="6" t="inlineStr">
@@ -2830,7 +2853,7 @@
       <c r="G14" s="15" t="n"/>
       <c r="H14" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 414</t>
         </is>
       </c>
@@ -3031,7 +3054,7 @@
       <c r="G21" s="4" t="n"/>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I21" s="8" t="n"/>
@@ -3318,7 +3341,7 @@
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I4" s="6" t="inlineStr">
@@ -3469,7 +3492,7 @@
       <c r="G9" s="13" t="n"/>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I9" s="6" t="inlineStr">
@@ -3503,7 +3526,7 @@
       </c>
       <c r="H10" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 414</t>
         </is>
       </c>
@@ -3716,7 +3739,7 @@
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 306</t>
         </is>
       </c>
@@ -3752,7 +3775,7 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 306
 312</t>
         </is>
